--- a/data/raw/interaction_matrices/willem_2012/0_20_60/work.xlsx
+++ b/data/raw/interaction_matrices/willem_2012/0_20_60/work.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" state="visible" r:id="rId2"/>
@@ -56,12 +56,11 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -77,6 +76,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -121,12 +126,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -147,72 +156,69 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>0.0662136964130003</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>2.20524052620404</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>0.0191790159032058</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>0.801867825773403</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>8.73811945266577</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>0.666982578538796</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>0.0169149648792151</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>1.61775387349504</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>0.0987282754504844</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -230,72 +236,69 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>0.0364706456178558</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>0.896436912691301</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>0.0147952402759004</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>0.325961685168254</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>3.20168488167716</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>0.297035220879515</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>0.0130486866953675</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>0.72045341903085</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>0.0822067210799175</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -313,72 +316,69 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="0" t="n">
+      <c r="B2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>0.343954259441215</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>0.00244085636410724</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>0.125068377306843</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>1.28357765052495</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>0.113107058949873</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>0.00215271731784639</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>0.274339073648151</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>0.0208452023137179</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -396,72 +396,69 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>0.0247858756626205</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>0.808524632950109</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>0.00438377562730547</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>0.293995091149507</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>3.24738825109593</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>0.258404747060167</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>0.0038662781838476</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>0.626755921274448</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>0.0673992767404052</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -479,72 +476,69 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>0.0215991202202835</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>0.86224109425282</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>0.313527428561784</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>3.30488190868921</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>0.231722297194186</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="0" t="n">
+      <c r="B4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="n">
         <v>0.562038134012908</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>0.0151153189232629</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -562,72 +556,69 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>0.00495717513252409</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>0.419573252714085</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>0.152564896168332</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>1.46648299683514</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>0.0848911464811348</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="0" t="n">
+      <c r="B4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="n">
         <v>0.20590190128527</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>0.0126919913941233</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
